--- a/تقرير شهر مايو.xlsx
+++ b/تقرير شهر مايو.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Projects\onaizah\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C8C187-67E1-4BDB-A685-8E95450A0BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601F0476-912C-450A-970D-F8925A43F20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,7 +625,7 @@
   <dimension ref="B2:K50"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="E7" sqref="C7:E18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1363,9 +1363,9 @@
   </sheetData>
   <mergeCells count="55">
     <mergeCell ref="B2:K2"/>
+    <mergeCell ref="D15:D18"/>
     <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="B15:B18"/>
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C19:C22"/>
@@ -1385,7 +1385,7 @@
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="E11:E14"/>
     <mergeCell ref="D43:D46"/>
     <mergeCell ref="D39:D42"/>
     <mergeCell ref="E47:E50"/>
@@ -1402,13 +1402,13 @@
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="B11:B14"/>
-    <mergeCell ref="F5:F6"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="E39:E42"/>
+    <mergeCell ref="E19:E22"/>
     <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E19:E22"/>
     <mergeCell ref="C35:C38"/>
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="B23:B26"/>

--- a/تقرير شهر مايو.xlsx
+++ b/تقرير شهر مايو.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Projects\onaizah\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601F0476-912C-450A-970D-F8925A43F20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD5F719-9CA9-4BD7-B702-26D637DBF16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K50"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A58" zoomScale="85" workbookViewId="0">
+      <selection activeCell="HY21" sqref="HY21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1365,7 +1365,7 @@
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="E7:E10"/>
-    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="E11:E14"/>
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C19:C22"/>
@@ -1385,7 +1385,7 @@
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C7:C10"/>
-    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="B15:B18"/>
     <mergeCell ref="D43:D46"/>
     <mergeCell ref="D39:D42"/>
     <mergeCell ref="E47:E50"/>
@@ -1402,13 +1402,13 @@
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="E35:E38"/>
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B11:B14"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="E39:E42"/>
+    <mergeCell ref="D27:D30"/>
     <mergeCell ref="E19:E22"/>
-    <mergeCell ref="D27:D30"/>
     <mergeCell ref="C35:C38"/>
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="B23:B26"/>
